--- a/PhoPQ/220113_phop_shift_1.xlsx
+++ b/PhoPQ/220113_phop_shift_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbutc\Desktop\Rice\Research\Fall2021\paper\MATLAB\PhoPQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbutc\Desktop\Rice\Research\Spring2022\paper\Data\PhoPQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F5F6F52-6DA0-4A5E-8875-108D3E8A5F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA1515B-DE82-472A-947A-E8AF0AC6D6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12696" yWindow="1704" windowWidth="20136" windowHeight="12120" xr2:uid="{259FD0B0-BE3D-411B-BC0F-1EC5C246E070}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{259FD0B0-BE3D-411B-BC0F-1EC5C246E070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,15 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>WT</t>
   </si>
   <si>
-    <t>DN</t>
+    <t>PhoP(D52N)</t>
   </si>
   <si>
-    <t>LL</t>
+    <t>+LL37</t>
   </si>
 </sst>
 </file>
@@ -97,11 +97,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +420,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:L27"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,11 +429,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
